--- a/data/apicases_login.xlsx
+++ b/data/apicases_login.xlsx
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="H3" s="13" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
